--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Cx3cl1-Itgb3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Cx3cl1-Itgb3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,16 +85,16 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Cx3cl1</t>
+  </si>
+  <si>
+    <t>Itgb3</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Cx3cl1</t>
-  </si>
-  <si>
-    <t>Itgb3</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.938724000000001</v>
+        <v>16.6160005</v>
       </c>
       <c r="H2">
-        <v>17.877448</v>
+        <v>33.232001</v>
       </c>
       <c r="I2">
-        <v>0.3465268197322602</v>
+        <v>0.6672963354196896</v>
       </c>
       <c r="J2">
-        <v>0.2718125595206999</v>
+        <v>0.6022128312718646</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.550980500000001</v>
+        <v>8.6414115</v>
       </c>
       <c r="N2">
-        <v>11.101961</v>
+        <v>17.282823</v>
       </c>
       <c r="O2">
-        <v>0.4587918645086687</v>
+        <v>0.324587453754156</v>
       </c>
       <c r="P2">
-        <v>0.3684119094562331</v>
+        <v>0.245468685875478</v>
       </c>
       <c r="Q2">
-        <v>49.618682618882</v>
+        <v>143.5856978047057</v>
       </c>
       <c r="R2">
-        <v>198.474730475528</v>
+        <v>574.342791218823</v>
       </c>
       <c r="S2">
-        <v>0.158983685727223</v>
+        <v>0.2165960184133562</v>
       </c>
       <c r="T2">
-        <v>0.1001389840672071</v>
+        <v>0.1478243923096556</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.938724000000001</v>
+        <v>16.6160005</v>
       </c>
       <c r="H3">
-        <v>17.877448</v>
+        <v>33.232001</v>
       </c>
       <c r="I3">
-        <v>0.3465268197322602</v>
+        <v>0.6672963354196896</v>
       </c>
       <c r="J3">
-        <v>0.2718125595206999</v>
+        <v>0.6022128312718646</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>3.981621</v>
       </c>
       <c r="O3">
-        <v>0.1096944538210784</v>
+        <v>0.04985235811703818</v>
       </c>
       <c r="P3">
-        <v>0.1321277020646205</v>
+        <v>0.05655113603398049</v>
       </c>
       <c r="Q3">
-        <v>11.863537063868</v>
+        <v>22.05287217560349</v>
       </c>
       <c r="R3">
-        <v>71.181222383208</v>
+        <v>132.317233053621</v>
       </c>
       <c r="S3">
-        <v>0.03801207022488556</v>
+        <v>0.03326629588352959</v>
       </c>
       <c r="T3">
-        <v>0.03591396888177296</v>
+        <v>0.03405581974266376</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,14 +652,14 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>25</v>
       </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
       <c r="E4">
         <v>2</v>
       </c>
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.938724000000001</v>
+        <v>16.6160005</v>
       </c>
       <c r="H4">
-        <v>17.877448</v>
+        <v>33.232001</v>
       </c>
       <c r="I4">
-        <v>0.3465268197322602</v>
+        <v>0.6672963354196896</v>
       </c>
       <c r="J4">
-        <v>0.2718125595206999</v>
+        <v>0.6022128312718646</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.250284</v>
+        <v>0.5601933333333333</v>
       </c>
       <c r="N4">
-        <v>0.750852</v>
+        <v>1.68058</v>
       </c>
       <c r="O4">
-        <v>0.02068612257180288</v>
+        <v>0.02104190127697539</v>
       </c>
       <c r="P4">
-        <v>0.02491657276034671</v>
+        <v>0.0238693507483477</v>
       </c>
       <c r="Q4">
-        <v>2.237219597616</v>
+        <v>9.308172706763333</v>
       </c>
       <c r="R4">
-        <v>13.423317585696</v>
+        <v>55.84903624057999</v>
       </c>
       <c r="S4">
-        <v>0.007168296267398575</v>
+        <v>0.01404118361238856</v>
       </c>
       <c r="T4">
-        <v>0.006772637416473592</v>
+        <v>0.01437442929478367</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,10 +714,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>8.938724000000001</v>
+        <v>16.6160005</v>
       </c>
       <c r="H5">
-        <v>17.877448</v>
+        <v>33.232001</v>
       </c>
       <c r="I5">
-        <v>0.3465268197322602</v>
+        <v>0.6672963354196896</v>
       </c>
       <c r="J5">
-        <v>0.2718125595206999</v>
+        <v>0.6022128312718646</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.611755</v>
+        <v>0.8194015</v>
       </c>
       <c r="N5">
-        <v>1.22351</v>
+        <v>1.638803</v>
       </c>
       <c r="O5">
-        <v>0.05056191731758031</v>
+        <v>0.03077824108796764</v>
       </c>
       <c r="P5">
-        <v>0.04060144467619692</v>
+        <v>0.02327599020245657</v>
       </c>
       <c r="Q5">
-        <v>5.468309100620001</v>
+        <v>13.61517573370075</v>
       </c>
       <c r="R5">
-        <v>21.87323640248</v>
+        <v>54.460702934803</v>
       </c>
       <c r="S5">
-        <v>0.0175210604076266</v>
+        <v>0.02053820748866452</v>
       </c>
       <c r="T5">
-        <v>0.01103598259767518</v>
+        <v>0.01401709996047755</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,13 +776,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>8.938724000000001</v>
+        <v>16.6160005</v>
       </c>
       <c r="H6">
-        <v>17.877448</v>
+        <v>33.232001</v>
       </c>
       <c r="I6">
-        <v>0.3465268197322602</v>
+        <v>0.6672963354196896</v>
       </c>
       <c r="J6">
-        <v>0.2718125595206999</v>
+        <v>0.6022128312718646</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.001879333333334</v>
+        <v>15.11328633333333</v>
       </c>
       <c r="N6">
-        <v>12.005638</v>
+        <v>45.339859</v>
       </c>
       <c r="O6">
-        <v>0.3307577248521605</v>
+        <v>0.5676830838103418</v>
       </c>
       <c r="P6">
-        <v>0.3983998880756573</v>
+        <v>0.6439639870471084</v>
       </c>
       <c r="Q6">
-        <v>35.77169484197068</v>
+        <v>251.1223732713098</v>
       </c>
       <c r="R6">
-        <v>214.630169051824</v>
+        <v>1506.734239627859</v>
       </c>
       <c r="S6">
-        <v>0.1146164224948971</v>
+        <v>0.3788128415063896</v>
       </c>
       <c r="T6">
-        <v>0.1082900932906048</v>
+        <v>0.3878033758767576</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,10 +838,10 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>8.938724000000001</v>
+        <v>16.6160005</v>
       </c>
       <c r="H7">
-        <v>17.877448</v>
+        <v>33.232001</v>
       </c>
       <c r="I7">
-        <v>0.3465268197322602</v>
+        <v>0.6672963354196896</v>
       </c>
       <c r="J7">
-        <v>0.2718125595206999</v>
+        <v>0.6022128312718646</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.3570200000000001</v>
+        <v>0.161253</v>
       </c>
       <c r="N7">
-        <v>1.07106</v>
+        <v>0.4837590000000001</v>
       </c>
       <c r="O7">
-        <v>0.02950791692870925</v>
+        <v>0.00605696195352101</v>
       </c>
       <c r="P7">
-        <v>0.03554248296694549</v>
+        <v>0.006870850092628699</v>
       </c>
       <c r="Q7">
-        <v>3.191303242480001</v>
+        <v>2.6793799286265</v>
       </c>
       <c r="R7">
-        <v>19.14781945488</v>
+        <v>16.076279571759</v>
       </c>
       <c r="S7">
-        <v>0.01022528461022934</v>
+        <v>0.004041788515361054</v>
       </c>
       <c r="T7">
-        <v>0.009660893266966335</v>
+        <v>0.004137714087526482</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -921,10 +921,10 @@
         <v>16.146557</v>
       </c>
       <c r="I8">
-        <v>0.2086507741237513</v>
+        <v>0.216147849292316</v>
       </c>
       <c r="J8">
-        <v>0.2454957209561943</v>
+        <v>0.2925994076090256</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>5.550980500000001</v>
+        <v>8.6414115</v>
       </c>
       <c r="N8">
-        <v>11.101961</v>
+        <v>17.282823</v>
       </c>
       <c r="O8">
-        <v>0.4587918645086687</v>
+        <v>0.324587453754156</v>
       </c>
       <c r="P8">
-        <v>0.3684119094562331</v>
+        <v>0.245468685875478</v>
       </c>
       <c r="Q8">
-        <v>29.87640768304617</v>
+        <v>46.50968111506851</v>
       </c>
       <c r="R8">
-        <v>179.258446098277</v>
+        <v>279.058086690411</v>
       </c>
       <c r="S8">
-        <v>0.09572727769141294</v>
+        <v>0.07015888003622989</v>
       </c>
       <c r="T8">
-        <v>0.09044354732080613</v>
+        <v>0.07182399207373087</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -983,10 +983,10 @@
         <v>16.146557</v>
       </c>
       <c r="I9">
-        <v>0.2086507741237513</v>
+        <v>0.216147849292316</v>
       </c>
       <c r="J9">
-        <v>0.2454957209561943</v>
+        <v>0.2925994076090256</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>3.981621</v>
       </c>
       <c r="O9">
-        <v>0.1096944538210784</v>
+        <v>0.04985235811703818</v>
       </c>
       <c r="P9">
-        <v>0.1321277020646205</v>
+        <v>0.05655113603398049</v>
       </c>
       <c r="Q9">
         <v>7.143274492099667</v>
@@ -1013,10 +1013,10 @@
         <v>64.289470428897</v>
       </c>
       <c r="S9">
-        <v>0.02288783270685009</v>
+        <v>0.01077547998914813</v>
       </c>
       <c r="T9">
-        <v>0.03243678547663924</v>
+        <v>0.01654682890316012</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,13 +1024,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
         <v>25</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1045,10 +1045,10 @@
         <v>16.146557</v>
       </c>
       <c r="I10">
-        <v>0.2086507741237513</v>
+        <v>0.216147849292316</v>
       </c>
       <c r="J10">
-        <v>0.2454957209561943</v>
+        <v>0.2925994076090256</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.250284</v>
+        <v>0.5601933333333333</v>
       </c>
       <c r="N10">
-        <v>0.750852</v>
+        <v>1.68058</v>
       </c>
       <c r="O10">
-        <v>0.02068612257180288</v>
+        <v>0.02104190127697539</v>
       </c>
       <c r="P10">
-        <v>0.02491657276034671</v>
+        <v>0.0238693507483477</v>
       </c>
       <c r="Q10">
-        <v>1.347074957396</v>
+        <v>3.015064529228889</v>
       </c>
       <c r="R10">
-        <v>12.123674616564</v>
+        <v>27.13558076306</v>
       </c>
       <c r="S10">
-        <v>0.004316175488225476</v>
+        <v>0.004548161706039467</v>
       </c>
       <c r="T10">
-        <v>0.006116911993558788</v>
+        <v>0.006984157888978591</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,10 +1086,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
         <v>22</v>
@@ -1107,10 +1107,10 @@
         <v>16.146557</v>
       </c>
       <c r="I11">
-        <v>0.2086507741237513</v>
+        <v>0.216147849292316</v>
       </c>
       <c r="J11">
-        <v>0.2454957209561943</v>
+        <v>0.2925994076090256</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.611755</v>
+        <v>0.8194015</v>
       </c>
       <c r="N11">
-        <v>1.22351</v>
+        <v>1.638803</v>
       </c>
       <c r="O11">
-        <v>0.05056191731758031</v>
+        <v>0.03077824108796764</v>
       </c>
       <c r="P11">
-        <v>0.04060144467619692</v>
+        <v>0.02327599020245657</v>
       </c>
       <c r="Q11">
-        <v>3.292578992511667</v>
+        <v>4.410171008545167</v>
       </c>
       <c r="R11">
-        <v>19.75547395507</v>
+        <v>26.461026051271</v>
       </c>
       <c r="S11">
-        <v>0.01054978318949424</v>
+        <v>0.006652650616164595</v>
       </c>
       <c r="T11">
-        <v>0.009967480932645999</v>
+        <v>0.006810540944752277</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1169,10 +1169,10 @@
         <v>16.146557</v>
       </c>
       <c r="I12">
-        <v>0.2086507741237513</v>
+        <v>0.216147849292316</v>
       </c>
       <c r="J12">
-        <v>0.2454957209561943</v>
+        <v>0.2925994076090256</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.001879333333334</v>
+        <v>15.11328633333333</v>
       </c>
       <c r="N12">
-        <v>12.005638</v>
+        <v>45.339859</v>
       </c>
       <c r="O12">
-        <v>0.3307577248521605</v>
+        <v>0.5676830838103418</v>
       </c>
       <c r="P12">
-        <v>0.3983998880756573</v>
+        <v>0.6439639870471084</v>
       </c>
       <c r="Q12">
-        <v>21.53885758759623</v>
+        <v>81.3425130794959</v>
       </c>
       <c r="R12">
-        <v>193.849718288366</v>
+        <v>732.0826177154631</v>
       </c>
       <c r="S12">
-        <v>0.06901285533781402</v>
+        <v>0.1227034776452349</v>
       </c>
       <c r="T12">
-        <v>0.09780546775200059</v>
+        <v>0.1884234811315302</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,10 +1210,10 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
         <v>27</v>
@@ -1231,10 +1231,10 @@
         <v>16.146557</v>
       </c>
       <c r="I13">
-        <v>0.2086507741237513</v>
+        <v>0.216147849292316</v>
       </c>
       <c r="J13">
-        <v>0.2454957209561943</v>
+        <v>0.2925994076090256</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.3570200000000001</v>
+        <v>0.161253</v>
       </c>
       <c r="N13">
-        <v>1.07106</v>
+        <v>0.4837590000000001</v>
       </c>
       <c r="O13">
-        <v>0.02950791692870925</v>
+        <v>0.00605696195352101</v>
       </c>
       <c r="P13">
-        <v>0.03554248296694549</v>
+        <v>0.006870850092628699</v>
       </c>
       <c r="Q13">
-        <v>1.921547926713334</v>
+        <v>0.8678935853070001</v>
       </c>
       <c r="R13">
-        <v>17.29393134042</v>
+        <v>7.811042267763002</v>
       </c>
       <c r="S13">
-        <v>0.00615684970995453</v>
+        <v>0.001309199299498951</v>
       </c>
       <c r="T13">
-        <v>0.008725527480543538</v>
+        <v>0.002010406666873576</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.6756</v>
+        <v>2.902296</v>
       </c>
       <c r="H14">
-        <v>5.3512</v>
+        <v>5.804592</v>
       </c>
       <c r="I14">
-        <v>0.1037247775941662</v>
+        <v>0.1165558152879945</v>
       </c>
       <c r="J14">
-        <v>0.08136079425358526</v>
+        <v>0.1051877611191097</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>5.550980500000001</v>
+        <v>8.6414115</v>
       </c>
       <c r="N14">
-        <v>11.101961</v>
+        <v>17.282823</v>
       </c>
       <c r="O14">
-        <v>0.4587918645086687</v>
+        <v>0.324587453754156</v>
       </c>
       <c r="P14">
-        <v>0.3684119094562331</v>
+        <v>0.245468685875478</v>
       </c>
       <c r="Q14">
-        <v>14.8522034258</v>
+        <v>25.079934030804</v>
       </c>
       <c r="R14">
-        <v>59.40881370320001</v>
+        <v>100.319736123216</v>
       </c>
       <c r="S14">
-        <v>0.04758808410817447</v>
+        <v>0.03783255530456985</v>
       </c>
       <c r="T14">
-        <v>0.02997428556583907</v>
+        <v>0.02582030149209157</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.6756</v>
+        <v>2.902296</v>
       </c>
       <c r="H15">
-        <v>5.3512</v>
+        <v>5.804592</v>
       </c>
       <c r="I15">
-        <v>0.1037247775941662</v>
+        <v>0.1165558152879945</v>
       </c>
       <c r="J15">
-        <v>0.08136079425358526</v>
+        <v>0.1051877611191097</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>3.981621</v>
       </c>
       <c r="O15">
-        <v>0.1096944538210784</v>
+        <v>0.04985235811703818</v>
       </c>
       <c r="P15">
-        <v>0.1321277020646205</v>
+        <v>0.05655113603398049</v>
       </c>
       <c r="Q15">
-        <v>3.5510750492</v>
+        <v>3.851947567271999</v>
       </c>
       <c r="R15">
-        <v>21.3064502952</v>
+        <v>23.11168540363199</v>
       </c>
       <c r="S15">
-        <v>0.01137803282590488</v>
+        <v>0.005810582244360453</v>
       </c>
       <c r="T15">
-        <v>0.0107500147828786</v>
+        <v>0.005948487388156618</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,14 +1396,14 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
         <v>25</v>
       </c>
-      <c r="D16" t="s">
-        <v>26</v>
-      </c>
       <c r="E16">
         <v>2</v>
       </c>
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.6756</v>
+        <v>2.902296</v>
       </c>
       <c r="H16">
-        <v>5.3512</v>
+        <v>5.804592</v>
       </c>
       <c r="I16">
-        <v>0.1037247775941662</v>
+        <v>0.1165558152879945</v>
       </c>
       <c r="J16">
-        <v>0.08136079425358526</v>
+        <v>0.1051877611191097</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.250284</v>
+        <v>0.5601933333333333</v>
       </c>
       <c r="N16">
-        <v>0.750852</v>
+        <v>1.68058</v>
       </c>
       <c r="O16">
-        <v>0.02068612257180288</v>
+        <v>0.02104190127697539</v>
       </c>
       <c r="P16">
-        <v>0.02491657276034671</v>
+        <v>0.0238693507483477</v>
       </c>
       <c r="Q16">
-        <v>0.6696598704000001</v>
+        <v>1.62584687056</v>
       </c>
       <c r="R16">
-        <v>4.0179592224</v>
+        <v>9.755081223359999</v>
       </c>
       <c r="S16">
-        <v>0.002145663463045914</v>
+        <v>0.002452555958547358</v>
       </c>
       <c r="T16">
-        <v>0.002027232149859056</v>
+        <v>0.002510763564585441</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,10 +1458,10 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D17" t="s">
         <v>22</v>
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.6756</v>
+        <v>2.902296</v>
       </c>
       <c r="H17">
-        <v>5.3512</v>
+        <v>5.804592</v>
       </c>
       <c r="I17">
-        <v>0.1037247775941662</v>
+        <v>0.1165558152879945</v>
       </c>
       <c r="J17">
-        <v>0.08136079425358526</v>
+        <v>0.1051877611191097</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.611755</v>
+        <v>0.8194015</v>
       </c>
       <c r="N17">
-        <v>1.22351</v>
+        <v>1.638803</v>
       </c>
       <c r="O17">
-        <v>0.05056191731758031</v>
+        <v>0.03077824108796764</v>
       </c>
       <c r="P17">
-        <v>0.04060144467619692</v>
+        <v>0.02327599020245657</v>
       </c>
       <c r="Q17">
-        <v>1.636811678</v>
+        <v>2.378145695844</v>
       </c>
       <c r="R17">
-        <v>6.547246712000001</v>
+        <v>9.512582783375999</v>
       </c>
       <c r="S17">
-        <v>0.005244523628500636</v>
+        <v>0.003587382983138517</v>
       </c>
       <c r="T17">
-        <v>0.003303365786698382</v>
+        <v>0.00244834929722674</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,13 +1520,13 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E18">
         <v>2</v>
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2.6756</v>
+        <v>2.902296</v>
       </c>
       <c r="H18">
-        <v>5.3512</v>
+        <v>5.804592</v>
       </c>
       <c r="I18">
-        <v>0.1037247775941662</v>
+        <v>0.1165558152879945</v>
       </c>
       <c r="J18">
-        <v>0.08136079425358526</v>
+        <v>0.1051877611191097</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>4.001879333333334</v>
+        <v>15.11328633333333</v>
       </c>
       <c r="N18">
-        <v>12.005638</v>
+        <v>45.339859</v>
       </c>
       <c r="O18">
-        <v>0.3307577248521605</v>
+        <v>0.5676830838103418</v>
       </c>
       <c r="P18">
-        <v>0.3983998880756573</v>
+        <v>0.6439639870471084</v>
       </c>
       <c r="Q18">
-        <v>10.70742834426667</v>
+        <v>43.863230472088</v>
       </c>
       <c r="R18">
-        <v>64.24457006560002</v>
+        <v>263.179382832528</v>
       </c>
       <c r="S18">
-        <v>0.03430777144784275</v>
+        <v>0.06616676465871728</v>
       </c>
       <c r="T18">
-        <v>0.03241413132437495</v>
+        <v>0.06773713003882072</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,10 +1582,10 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D19" t="s">
         <v>27</v>
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2.6756</v>
+        <v>2.902296</v>
       </c>
       <c r="H19">
-        <v>5.3512</v>
+        <v>5.804592</v>
       </c>
       <c r="I19">
-        <v>0.1037247775941662</v>
+        <v>0.1165558152879945</v>
       </c>
       <c r="J19">
-        <v>0.08136079425358526</v>
+        <v>0.1051877611191097</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,400 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.3570200000000001</v>
+        <v>0.161253</v>
       </c>
       <c r="N19">
-        <v>1.07106</v>
+        <v>0.4837590000000001</v>
       </c>
       <c r="O19">
-        <v>0.02950791692870925</v>
+        <v>0.00605696195352101</v>
       </c>
       <c r="P19">
-        <v>0.03554248296694549</v>
+        <v>0.006870850092628699</v>
       </c>
       <c r="Q19">
-        <v>0.9552427120000002</v>
+        <v>0.468003936888</v>
       </c>
       <c r="R19">
-        <v>5.731456272000001</v>
+        <v>2.808023621328</v>
       </c>
       <c r="S19">
-        <v>0.003060702120697497</v>
+        <v>0.0007059741386610049</v>
       </c>
       <c r="T19">
-        <v>0.002891764643935211</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" t="s">
-        <v>20</v>
-      </c>
-      <c r="E20">
-        <v>3</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>8.798677</v>
-      </c>
-      <c r="H20">
-        <v>26.396031</v>
-      </c>
-      <c r="I20">
-        <v>0.3410976285498225</v>
-      </c>
-      <c r="J20">
-        <v>0.4013309252695206</v>
-      </c>
-      <c r="K20">
-        <v>2</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>5.550980500000001</v>
-      </c>
-      <c r="N20">
-        <v>11.101961</v>
-      </c>
-      <c r="O20">
-        <v>0.4587918645086687</v>
-      </c>
-      <c r="P20">
-        <v>0.3684119094562331</v>
-      </c>
-      <c r="Q20">
-        <v>48.8412844527985</v>
-      </c>
-      <c r="R20">
-        <v>293.047706716791</v>
-      </c>
-      <c r="S20">
-        <v>0.1564928169818584</v>
-      </c>
-      <c r="T20">
-        <v>0.1478550925023809</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
-        <v>21</v>
-      </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>8.798677</v>
-      </c>
-      <c r="H21">
-        <v>26.396031</v>
-      </c>
-      <c r="I21">
-        <v>0.3410976285498225</v>
-      </c>
-      <c r="J21">
-        <v>0.4013309252695206</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>1.327207</v>
-      </c>
-      <c r="N21">
-        <v>3.981621</v>
-      </c>
-      <c r="O21">
-        <v>0.1096944538210784</v>
-      </c>
-      <c r="P21">
-        <v>0.1321277020646205</v>
-      </c>
-      <c r="Q21">
-        <v>11.677665705139</v>
-      </c>
-      <c r="R21">
-        <v>105.098991346251</v>
-      </c>
-      <c r="S21">
-        <v>0.03741651806343784</v>
-      </c>
-      <c r="T21">
-        <v>0.05302693292332968</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" t="s">
-        <v>26</v>
-      </c>
-      <c r="E22">
-        <v>3</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>8.798677</v>
-      </c>
-      <c r="H22">
-        <v>26.396031</v>
-      </c>
-      <c r="I22">
-        <v>0.3410976285498225</v>
-      </c>
-      <c r="J22">
-        <v>0.4013309252695206</v>
-      </c>
-      <c r="K22">
-        <v>3</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>0.250284</v>
-      </c>
-      <c r="N22">
-        <v>0.750852</v>
-      </c>
-      <c r="O22">
-        <v>0.02068612257180288</v>
-      </c>
-      <c r="P22">
-        <v>0.02491657276034671</v>
-      </c>
-      <c r="Q22">
-        <v>2.202168074268</v>
-      </c>
-      <c r="R22">
-        <v>19.819512668412</v>
-      </c>
-      <c r="S22">
-        <v>0.007055987353132917</v>
-      </c>
-      <c r="T22">
-        <v>0.009999791200455278</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" t="s">
-        <v>22</v>
-      </c>
-      <c r="E23">
-        <v>3</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>8.798677</v>
-      </c>
-      <c r="H23">
-        <v>26.396031</v>
-      </c>
-      <c r="I23">
-        <v>0.3410976285498225</v>
-      </c>
-      <c r="J23">
-        <v>0.4013309252695206</v>
-      </c>
-      <c r="K23">
-        <v>2</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>0.611755</v>
-      </c>
-      <c r="N23">
-        <v>1.22351</v>
-      </c>
-      <c r="O23">
-        <v>0.05056191731758031</v>
-      </c>
-      <c r="P23">
-        <v>0.04060144467619692</v>
-      </c>
-      <c r="Q23">
-        <v>5.382634648135</v>
-      </c>
-      <c r="R23">
-        <v>32.29580788881</v>
-      </c>
-      <c r="S23">
-        <v>0.01724655009195885</v>
-      </c>
-      <c r="T23">
-        <v>0.01629461535917736</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" t="s">
-        <v>23</v>
-      </c>
-      <c r="E24">
-        <v>3</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>8.798677</v>
-      </c>
-      <c r="H24">
-        <v>26.396031</v>
-      </c>
-      <c r="I24">
-        <v>0.3410976285498225</v>
-      </c>
-      <c r="J24">
-        <v>0.4013309252695206</v>
-      </c>
-      <c r="K24">
-        <v>3</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>4.001879333333334</v>
-      </c>
-      <c r="N24">
-        <v>12.005638</v>
-      </c>
-      <c r="O24">
-        <v>0.3307577248521605</v>
-      </c>
-      <c r="P24">
-        <v>0.3983998880756573</v>
-      </c>
-      <c r="Q24">
-        <v>35.21124364697534</v>
-      </c>
-      <c r="R24">
-        <v>316.9011928227781</v>
-      </c>
-      <c r="S24">
-        <v>0.1128206755716066</v>
-      </c>
-      <c r="T24">
-        <v>0.159890195708677</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" t="s">
-        <v>27</v>
-      </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>8.798677</v>
-      </c>
-      <c r="H25">
-        <v>26.396031</v>
-      </c>
-      <c r="I25">
-        <v>0.3410976285498225</v>
-      </c>
-      <c r="J25">
-        <v>0.4013309252695206</v>
-      </c>
-      <c r="K25">
-        <v>3</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>0.3570200000000001</v>
-      </c>
-      <c r="N25">
-        <v>1.07106</v>
-      </c>
-      <c r="O25">
-        <v>0.02950791692870925</v>
-      </c>
-      <c r="P25">
-        <v>0.03554248296694549</v>
-      </c>
-      <c r="Q25">
-        <v>3.14130366254</v>
-      </c>
-      <c r="R25">
-        <v>28.27173296286</v>
-      </c>
-      <c r="S25">
-        <v>0.01006508048782788</v>
-      </c>
-      <c r="T25">
-        <v>0.01426429757550041</v>
+        <v>0.0007227293382286405</v>
       </c>
     </row>
   </sheetData>
